--- a/Mifos Automation Excels/Client/4522-RBI-ACT2CTR-MEET-WEEKLYonFRI-ASSIGNSTAFF-ACTGRP-ACTCLIENT-DISJLG02JAN-PRODUCTIVE_COLLSHEETON09JAN-ON-10JAN2015.xlsx
+++ b/Mifos Automation Excels/Client/4522-RBI-ACT2CTR-MEET-WEEKLYonFRI-ASSIGNSTAFF-ACTGRP-ACTCLIENT-DISJLG02JAN-PRODUCTIVE_COLLSHEETON09JAN-ON-10JAN2015.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="17766"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\mifosx-e2e-testing\Mifos Automation Excels\Client\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="6"/>
+    <workbookView xWindow="180" yWindow="495" windowWidth="15015" windowHeight="7620" tabRatio="784" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="9" r:id="rId1"/>
@@ -26,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="70">
   <si>
     <t>submittedon</t>
   </si>
@@ -236,18 +231,12 @@
   </si>
   <si>
     <t>productiveCollectionSheet</t>
-  </si>
-  <si>
-    <t>verify1</t>
-  </si>
-  <si>
-    <t>Collection sheet cannot be generated for center/group without attach meeting define</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
     <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
@@ -468,7 +457,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -501,26 +490,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -553,23 +525,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -924,10 +879,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -965,14 +920,6 @@
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.25">
-      <c r="A5" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" t="s">
-        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -1212,7 +1159,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
